--- a/help/Rutas.xlsx
+++ b/help/Rutas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E961AE9C-7F79-46CD-B95D-279A3570370B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85120DB3-4E33-4F25-9DFE-3EC8A2EF1DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -38,6 +38,30 @@
     <author>Felipe Villabona</author>
   </authors>
   <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2F0D6B27-7CDC-4AA8-8022-C1A5218F5EAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Felipe Villabona:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INSTITUTO GEOGRÁFICO AGUSTÍN CODAZZI</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A11" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
       <text>
         <r>
@@ -91,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -183,9 +207,6 @@
     <t>Única</t>
   </si>
   <si>
-    <t>Gobierno de colombia</t>
-  </si>
-  <si>
     <t>Salud de Bogotá</t>
   </si>
   <si>
@@ -196,13 +217,40 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>OSB_EnfTransm-COVID-19</t>
+  </si>
+  <si>
+    <t>Datos GOV</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Controles_Inmediatos_de_Legalidad_de_las_medidas_administrativas_adoptadas_con_ocasi_n_del_Estado_de_Emergencia_por_COVID-19</t>
+  </si>
+  <si>
+    <t>Cuando exista</t>
+  </si>
+  <si>
+    <t>IGAC</t>
+  </si>
+  <si>
+    <t>REG1_DEPARTAMENTOS</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,12 +273,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -282,10 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,207 +649,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -816,35 +938,43 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>25</v>
       </c>
     </row>

--- a/help/Rutas.xlsx
+++ b/help/Rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85120DB3-4E33-4F25-9DFE-3EC8A2EF1DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35387146-10EB-4438-A70F-437904DA9295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>

--- a/help/Rutas.xlsx
+++ b/help/Rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35387146-10EB-4438-A70F-437904DA9295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A8E20-3888-4741-AA73-82CCB422CFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/policy-responses-covid</t>
+  </si>
+  <si>
+    <t>http://microdatos.dane.gov.co/index.php/catalog/608/get_microdata</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pobreza </t>
+  </si>
+  <si>
+    <t>https://www.minsalud.gov.co/sites/rid/Lists/BibliotecaDigital/RIDE/VS/ED/PSP/bases-datos-externas-actualizacion-asis-2019.zip</t>
   </si>
 </sst>
 </file>
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +993,36 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CCAE2F90-42E4-407A-AB1E-BB2C46C8ECC4}"/>
@@ -993,8 +1038,11 @@
     <hyperlink ref="B12" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId14"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/help/Rutas.xlsx
+++ b/help/Rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A8E20-3888-4741-AA73-82CCB422CFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DF488-705E-4B56-B3AB-4DA613FD1531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -62,7 +62,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{CFABB190-08CE-40C0-B460-D94A5CEC5113}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Felipe Villabona:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/owid/covid-19-data/blob/master/public/data/owid-covid-data.csv
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
       <text>
         <r>
           <rPr>
@@ -86,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
       <text>
         <r>
           <rPr>
@@ -115,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -228,9 +253,6 @@
     <t>Datos GOV</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Controles_Inmediatos_de_Legalidad_de_las_medidas_administrativas_adoptadas_con_ocasi_n_del_Estado_de_Emergencia_por_COVID-19</t>
   </si>
   <si>
@@ -252,13 +274,115 @@
     <t>http://microdatos.dane.gov.co/index.php/catalog/608/get_microdata</t>
   </si>
   <si>
-    <t>DANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pobreza </t>
-  </si>
-  <si>
     <t>https://www.minsalud.gov.co/sites/rid/Lists/BibliotecaDigital/RIDE/VS/ED/PSP/bases-datos-externas-actualizacion-asis-2019.zip</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Radicado,Ponente,Autoridad orden nacional,Acto demandado,Contenido acto</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>ID de caso</t>
+  </si>
+  <si>
+    <t>Fecha de diagnóstico</t>
+  </si>
+  <si>
+    <t>Ciudad de residencia</t>
+  </si>
+  <si>
+    <t>Localidad de residencia</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Tipo de caso</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Muestras_procesadas_de_COVID-19_en_Colombia</t>
+  </si>
+  <si>
+    <t>Fecha,Acumuladas,Amazonas,Antioquia,Arauca,Atlantico,Bogota,Bolivar,Boyaca,Caldas,Caqueta,Casanare,Cauca,Cesar,Choco,Cordoba,Cundinamarca,Guainia,Guajira,Guaviare,Huila,Magdalena,Meta,Narino,Norte de Santander,Putumayo,Quindio,Risaralda,San Andres,Santander,Sucre,Tolima,Valle del Cauca,Vaupes,Vichada,Procedencia desconocida</t>
+  </si>
+  <si>
+    <t>Ciudad - Fecha</t>
+  </si>
+  <si>
+    <t>Total, de muestras realizadas por ciudad</t>
+  </si>
+  <si>
+    <t>Controles adoptados</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO,MUNICIPIO,NUMERO_DEL_PREDIO,DIRECCION,DESTINO_ECONOMICO,AREA_TERRENO,AREA_CONSTRUIDA,NUMERO_PREDIAL_NACIONAL</t>
+  </si>
+  <si>
+    <t>Personas contagiadas en Bogotá, por localidad</t>
+  </si>
+  <si>
+    <t>Catastro</t>
+  </si>
+  <si>
+    <t>iso_code,location,date,total_cases,new_cases,total_deaths,new_deaths,total_cases_per_million,new_cases_per_million,total_deaths_per_million,new_deaths_per_million,total_tests,new_tests,new_tests_smoothed,total_tests_per_thousand,new_tests_per_thousand,new_tests_smoothed_per_thousand,tests_units,stringency_index,population,population_density,median_age,aged_65_older,aged_70_older,gdp_per_capita,extreme_poverty,cvd_death_rate,diabetes_prevalence,female_smokers,male_smokers,handwashing_facilities,hospital_beds_per_100k</t>
+  </si>
+  <si>
+    <t>Our World in Data</t>
+  </si>
+  <si>
+    <t>owid-covid-data</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Datos a nivel mundial, con datos promedio de pobreza, uso de hospitales, y diabetes, entre otros</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>Shape Mapas</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>tweets</t>
+  </si>
+  <si>
+    <t>Escucha de redes sociales: Qué habla la gente, nuevos descubrimientos, noticias relevantes</t>
+  </si>
+  <si>
+    <t>País - Fecha</t>
+  </si>
+  <si>
+    <t>País - Ciudad</t>
+  </si>
+  <si>
+    <t>https://datosabiertos.bogota.gov.co/dataset/44eacdb7-a535-45ed-be03-16dbbea6f6da?_external=True</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
   </si>
 </sst>
 </file>
@@ -664,27 +788,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -710,39 +835,46 @@
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -750,22 +882,31 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -776,73 +917,186 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -851,20 +1105,27 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -872,13 +1133,28 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -887,22 +1163,25 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -910,23 +1189,11 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -934,23 +1201,11 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -958,23 +1213,11 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -982,44 +1225,82 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1027,22 +1308,27 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CCAE2F90-42E4-407A-AB1E-BB2C46C8ECC4}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C5762E36-1677-4DDD-BAA1-57C02026CE02}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
     <hyperlink ref="B3" r:id="rId7" xr:uid="{C3505F30-AEB8-4C79-ACEA-B645738EAB7F}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{7096DE1B-C9E9-457F-B42A-1F80EF443061}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{7096DE1B-C9E9-457F-B42A-1F80EF443061}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
+    <hyperlink ref="F6" r:id="rId17" display="https://github.com/owid/covid-19-data/blob/master/public/data/owid-covid-data.csv" xr:uid="{0AAA3869-06BB-4BF7-B221-184FA6432453}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{86AFC568-138E-426D-A52D-592CF1884618}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{D109DD53-BAD0-43D7-9188-28908F6E6CB2}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{320D1AB7-EB63-429A-8510-9D0BA6FB2B5D}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{5A1EF81E-EEFD-4462-8636-E8D0FF45185E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId17"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/help/Rutas.xlsx
+++ b/help/Rutas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DF488-705E-4B56-B3AB-4DA613FD1531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD48B20-0BCE-43FB-9138-55615763E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -280,9 +281,6 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>Radicado,Ponente,Autoridad orden nacional,Acto demandado,Contenido acto</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -322,9 +320,6 @@
     <t>Muestras_procesadas_de_COVID-19_en_Colombia</t>
   </si>
   <si>
-    <t>Fecha,Acumuladas,Amazonas,Antioquia,Arauca,Atlantico,Bogota,Bolivar,Boyaca,Caldas,Caqueta,Casanare,Cauca,Cesar,Choco,Cordoba,Cundinamarca,Guainia,Guajira,Guaviare,Huila,Magdalena,Meta,Narino,Norte de Santander,Putumayo,Quindio,Risaralda,San Andres,Santander,Sucre,Tolima,Valle del Cauca,Vaupes,Vichada,Procedencia desconocida</t>
-  </si>
-  <si>
     <t>Ciudad - Fecha</t>
   </si>
   <si>
@@ -334,18 +329,12 @@
     <t>Controles adoptados</t>
   </si>
   <si>
-    <t>DEPARTAMENTO,MUNICIPIO,NUMERO_DEL_PREDIO,DIRECCION,DESTINO_ECONOMICO,AREA_TERRENO,AREA_CONSTRUIDA,NUMERO_PREDIAL_NACIONAL</t>
-  </si>
-  <si>
     <t>Personas contagiadas en Bogotá, por localidad</t>
   </si>
   <si>
     <t>Catastro</t>
   </si>
   <si>
-    <t>iso_code,location,date,total_cases,new_cases,total_deaths,new_deaths,total_cases_per_million,new_cases_per_million,total_deaths_per_million,new_deaths_per_million,total_tests,new_tests,new_tests_smoothed,total_tests_per_thousand,new_tests_per_thousand,new_tests_smoothed_per_thousand,tests_units,stringency_index,population,population_density,median_age,aged_65_older,aged_70_older,gdp_per_capita,extreme_poverty,cvd_death_rate,diabetes_prevalence,female_smokers,male_smokers,handwashing_facilities,hospital_beds_per_100k</t>
-  </si>
-  <si>
     <t>Our World in Data</t>
   </si>
   <si>
@@ -383,6 +372,294 @@
   </si>
   <si>
     <t>Kaggle</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>NUMERO_DEL_PREDIO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>DESTINO_ECONOMICO</t>
+  </si>
+  <si>
+    <t>AREA_TERRENO</t>
+  </si>
+  <si>
+    <t>AREA_CONSTRUIDA</t>
+  </si>
+  <si>
+    <t>NUMERO_PREDIAL_NACIONAL</t>
+  </si>
+  <si>
+    <t>Radicado</t>
+  </si>
+  <si>
+    <t>Ponente</t>
+  </si>
+  <si>
+    <t>Autoridad orden nacional</t>
+  </si>
+  <si>
+    <t>Acto demandado</t>
+  </si>
+  <si>
+    <t>Contenido acto</t>
+  </si>
+  <si>
+    <t>Acumuladas</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Arauca</t>
+  </si>
+  <si>
+    <t>Atlantico</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Boyaca</t>
+  </si>
+  <si>
+    <t>Caldas</t>
+  </si>
+  <si>
+    <t>Caqueta</t>
+  </si>
+  <si>
+    <t>Casanare</t>
+  </si>
+  <si>
+    <t>Cauca</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Choco</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Cundinamarca</t>
+  </si>
+  <si>
+    <t>Guainia</t>
+  </si>
+  <si>
+    <t>Guajira</t>
+  </si>
+  <si>
+    <t>Guaviare</t>
+  </si>
+  <si>
+    <t>Huila</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Narino</t>
+  </si>
+  <si>
+    <t>Norte de Santander</t>
+  </si>
+  <si>
+    <t>Putumayo</t>
+  </si>
+  <si>
+    <t>Quindio</t>
+  </si>
+  <si>
+    <t>Risaralda</t>
+  </si>
+  <si>
+    <t>San Andres</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Tolima</t>
+  </si>
+  <si>
+    <t>Valle del Cauca</t>
+  </si>
+  <si>
+    <t>Vaupes</t>
+  </si>
+  <si>
+    <t>Vichada</t>
+  </si>
+  <si>
+    <t>Procedencia desconocida</t>
+  </si>
+  <si>
+    <t>iso_code</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>total_cases</t>
+  </si>
+  <si>
+    <t>new_cases</t>
+  </si>
+  <si>
+    <t>total_deaths</t>
+  </si>
+  <si>
+    <t>new_deaths</t>
+  </si>
+  <si>
+    <t>total_cases_per_million</t>
+  </si>
+  <si>
+    <t>new_cases_per_million</t>
+  </si>
+  <si>
+    <t>total_deaths_per_million</t>
+  </si>
+  <si>
+    <t>new_deaths_per_million</t>
+  </si>
+  <si>
+    <t>total_tests</t>
+  </si>
+  <si>
+    <t>new_tests</t>
+  </si>
+  <si>
+    <t>new_tests_smoothed</t>
+  </si>
+  <si>
+    <t>total_tests_per_thousand</t>
+  </si>
+  <si>
+    <t>new_tests_per_thousand</t>
+  </si>
+  <si>
+    <t>new_tests_smoothed_per_thousand</t>
+  </si>
+  <si>
+    <t>tests_units</t>
+  </si>
+  <si>
+    <t>stringency_index</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>population_density</t>
+  </si>
+  <si>
+    <t>median_age</t>
+  </si>
+  <si>
+    <t>aged_65_older</t>
+  </si>
+  <si>
+    <t>aged_70_older</t>
+  </si>
+  <si>
+    <t>gdp_per_capita</t>
+  </si>
+  <si>
+    <t>extreme_poverty</t>
+  </si>
+  <si>
+    <t>cvd_death_rate</t>
+  </si>
+  <si>
+    <t>diabetes_prevalence</t>
+  </si>
+  <si>
+    <t>female_smokers</t>
+  </si>
+  <si>
+    <t>male_smokers</t>
+  </si>
+  <si>
+    <t>handwashing_facilities</t>
+  </si>
+  <si>
+    <t>hospital_beds_per_100k</t>
+  </si>
+  <si>
+    <t>Map_data</t>
+  </si>
+  <si>
+    <t>https://dataviz.worldbank.org/views/FS-COVID19/Overview?:embed=y&amp;:isGuestRedirectFromVizportal=y&amp;:display_count=n&amp;:showAppBanner=false&amp;:origin=viz_share_link&amp;:showVizHome=n</t>
+  </si>
+  <si>
+    <t>worldbank</t>
+  </si>
+  <si>
+    <t>Listado por país de las medidas adoptadas para combatir el COVID</t>
+  </si>
+  <si>
+    <t># of Instruments</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Detail of the measure</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level of income</t>
+  </si>
+  <si>
+    <t>Número de registros</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Type of intervention</t>
+  </si>
+  <si>
+    <t>https://datacatalog.worldbank.org/dataset/population-estimates-and-projections</t>
   </si>
 </sst>
 </file>
@@ -788,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,11 +1082,10 @@
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -837,12 +1113,11 @@
       <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -853,7 +1128,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -871,10 +1146,31 @@
         <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -885,13 +1181,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
@@ -900,13 +1196,25 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -917,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -932,9 +1240,11 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" t="s">
         <v>49</v>
       </c>
@@ -959,11 +1269,8 @@
       <c r="R4" t="s">
         <v>56</v>
       </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -971,16 +1278,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -989,30 +1296,135 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -1021,13 +1433,106 @@
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" t="s">
+        <v>138</v>
+      </c>
+      <c r="X6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1035,16 +1540,16 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
@@ -1053,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1067,16 +1572,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -1085,30 +1590,30 @@
         <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -1117,15 +1622,48 @@
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1137,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -1146,15 +1684,15 @@
         <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1163,10 +1701,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
@@ -1175,13 +1713,15 @@
         <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1189,11 +1729,26 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1202,10 +1757,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1214,10 +1769,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1226,55 +1781,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -1282,25 +1838,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1308,27 +1886,41 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CCAE2F90-42E4-407A-AB1E-BB2C46C8ECC4}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C5762E36-1677-4DDD-BAA1-57C02026CE02}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
     <hyperlink ref="B3" r:id="rId7" xr:uid="{C3505F30-AEB8-4C79-ACEA-B645738EAB7F}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{7096DE1B-C9E9-457F-B42A-1F80EF443061}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
     <hyperlink ref="B7" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
     <hyperlink ref="B6" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
     <hyperlink ref="F6" r:id="rId17" display="https://github.com/owid/covid-19-data/blob/master/public/data/owid-covid-data.csv" xr:uid="{0AAA3869-06BB-4BF7-B221-184FA6432453}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{86AFC568-138E-426D-A52D-592CF1884618}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{D109DD53-BAD0-43D7-9188-28908F6E6CB2}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{320D1AB7-EB63-429A-8510-9D0BA6FB2B5D}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{5A1EF81E-EEFD-4462-8636-E8D0FF45185E}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{86AFC568-138E-426D-A52D-592CF1884618}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{D109DD53-BAD0-43D7-9188-28908F6E6CB2}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{320D1AB7-EB63-429A-8510-9D0BA6FB2B5D}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{5A1EF81E-EEFD-4462-8636-E8D0FF45185E}"/>
+    <hyperlink ref="B9" r:id="rId22" xr:uid="{1E9A3ABB-F715-436A-A7C6-10BE88155252}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{11D0BDAB-B63A-48A9-9BE9-2554BC86247C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId22"/>
+  <legacyDrawing r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1F5DBA-F516-4571-B3CB-507996D8090B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>